--- a/ML_Regression/svm.xlsx
+++ b/ML_Regression/svm.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -553,6 +553,358 @@
         <v>0.6060606060606061</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Lasso</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.6153846153846154</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.3846153846153846</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.7692307692307693</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.4545454545454545</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Ridge</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.717948717948718</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.282051282051282</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8235294117647058</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.6363636363636364</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.717948717948718</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>PLS</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.717948717948718</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.282051282051282</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.8181818181818182</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.7659574468085107</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.717948717948718</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.282051282051282</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.5909090909090909</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.7027027027027029</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Lasso</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.7435897435897436</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.2564102564102564</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8947368421052632</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.7727272727272727</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Ridge</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.7435897435897436</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.2564102564102564</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.8947368421052632</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.7727272727272727</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>PLS</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.717948717948718</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.282051282051282</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.7692307692307693</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.7843137254901961</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.7435897435897436</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.2564102564102564</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.8947368421052632</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.7727272727272727</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Lasso</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.6153846153846154</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.3846153846153846</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.6511627906976745</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Ridge</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.6923076923076923</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.3076923076923077</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.7222222222222222</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.6842105263157895</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>PLS</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.6153846153846154</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.3846153846153846</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.6666666666666667</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.7435897435897436</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.2564102564102564</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.7368421052631577</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Lasso</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.7368421052631579</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.2631578947368421</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Ridge</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.7631578947368421</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.2368421052631579</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.7692307692307693</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.6896551724137931</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>PLS</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.6578947368421053</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.3421052631578947</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.5652173913043478</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.8125</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.6666666666666667</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.7894736842105263</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.2105263157894737</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.6875</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.7333333333333334</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
